--- a/Game Design/StatsCharacters.xlsx
+++ b/Game Design/StatsCharacters.xlsx
@@ -256,21 +256,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -304,6 +289,21 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -317,21 +317,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:L1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:L1048576" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:L1048576"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Type"/>
     <tableColumn id="2" name="Stats"/>
-    <tableColumn id="3" name="Lv 1" dataDxfId="11"/>
-    <tableColumn id="4" name="Lv 2" dataDxfId="10"/>
-    <tableColumn id="5" name="Lv 3" dataDxfId="9"/>
-    <tableColumn id="6" name="Lv 4" dataDxfId="8"/>
-    <tableColumn id="7" name="Lv 5" dataDxfId="7"/>
-    <tableColumn id="8" name="Lv 6" dataDxfId="6"/>
-    <tableColumn id="9" name="Lv 7" dataDxfId="5"/>
-    <tableColumn id="10" name="Lv 8" dataDxfId="4"/>
-    <tableColumn id="11" name="Lv 9" dataDxfId="3"/>
-    <tableColumn id="12" name="Lv 10" dataDxfId="2"/>
+    <tableColumn id="3" name="Lv 1" dataDxfId="9"/>
+    <tableColumn id="4" name="Lv 2" dataDxfId="8"/>
+    <tableColumn id="5" name="Lv 3" dataDxfId="7"/>
+    <tableColumn id="6" name="Lv 4" dataDxfId="6"/>
+    <tableColumn id="7" name="Lv 5" dataDxfId="5"/>
+    <tableColumn id="8" name="Lv 6" dataDxfId="4"/>
+    <tableColumn id="9" name="Lv 7" dataDxfId="3"/>
+    <tableColumn id="10" name="Lv 8" dataDxfId="2"/>
+    <tableColumn id="11" name="Lv 9" dataDxfId="1"/>
+    <tableColumn id="12" name="Lv 10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -627,7 +627,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Game Design/StatsCharacters.xlsx
+++ b/Game Design/StatsCharacters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="11820"/>
+    <workbookView xWindow="13065" yWindow="-15" windowWidth="15495" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
